--- a/dist/employees_information.xlsx
+++ b/dist/employees_information.xlsx
@@ -1,40 +1,307 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\Desktop\Projects\Nomina ABCOPA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F07D76-FCB4-46A6-8C32-64E5BC482F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Info de empleados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>salario</t>
+  </si>
+  <si>
+    <t>n_de_cuenta</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>tipo_de_cuenta</t>
+  </si>
+  <si>
+    <t>5-710-88</t>
+  </si>
+  <si>
+    <t>6-718-1627</t>
+  </si>
+  <si>
+    <t>5-522-224</t>
+  </si>
+  <si>
+    <t>5-713-745</t>
+  </si>
+  <si>
+    <t>9-755-140</t>
+  </si>
+  <si>
+    <t>Angel S.Sanguino T</t>
+  </si>
+  <si>
+    <t>Israel Saenz</t>
+  </si>
+  <si>
+    <t>José Rodriguez</t>
+  </si>
+  <si>
+    <t>Ramón Rodriguez</t>
+  </si>
+  <si>
+    <t>Carlos Orejuela</t>
+  </si>
+  <si>
+    <t>Ismeni Mina</t>
+  </si>
+  <si>
+    <t>Jihat Polanco</t>
+  </si>
+  <si>
+    <t>E-8-157368</t>
+  </si>
+  <si>
+    <t>AR113395</t>
+  </si>
+  <si>
+    <t>8-818-316</t>
+  </si>
+  <si>
+    <t>8-908-1915</t>
+  </si>
+  <si>
+    <t>9-704-2318</t>
+  </si>
+  <si>
+    <t>5-704-561</t>
+  </si>
+  <si>
+    <t>9-706-1114</t>
+  </si>
+  <si>
+    <t>8-847-2279</t>
+  </si>
+  <si>
+    <t>Angel Sanguino</t>
+  </si>
+  <si>
+    <t>Zulai Garces</t>
+  </si>
+  <si>
+    <t>Jose Alejandro Mora</t>
+  </si>
+  <si>
+    <t>Sharles Cabrera</t>
+  </si>
+  <si>
+    <t>Ricardo Reales</t>
+  </si>
+  <si>
+    <t>Ezequiel  Montilla</t>
+  </si>
+  <si>
+    <t>Judith Montilla</t>
+  </si>
+  <si>
+    <t>Misael Cedeño</t>
+  </si>
+  <si>
+    <t>Edionel Rodriguez</t>
+  </si>
+  <si>
+    <t>Eulises Camaño</t>
+  </si>
+  <si>
+    <t>Ayudante administrativo</t>
+  </si>
+  <si>
+    <t>Albañil</t>
+  </si>
+  <si>
+    <t>Obrero</t>
+  </si>
+  <si>
+    <t>Carpintero</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Supervisor de obra</t>
+  </si>
+  <si>
+    <t>Asistente administrativo</t>
+  </si>
+  <si>
+    <t>Jefe de almacen</t>
+  </si>
+  <si>
+    <t>salario_minimo</t>
+  </si>
+  <si>
+    <t>salario_fijo</t>
+  </si>
+  <si>
+    <t>empleado_fijo</t>
+  </si>
+  <si>
+    <t>Jefe de electricidad</t>
+  </si>
+  <si>
+    <t>Ingeniero Residente</t>
+  </si>
+  <si>
+    <t>Topografo</t>
+  </si>
+  <si>
+    <t>Jefe de seguridad</t>
+  </si>
+  <si>
+    <t>Banco General</t>
+  </si>
+  <si>
+    <t>Banco Nacional</t>
+  </si>
+  <si>
+    <t>Ahorro</t>
+  </si>
+  <si>
+    <t>0-465972284592</t>
+  </si>
+  <si>
+    <t>0-441988638943</t>
+  </si>
+  <si>
+    <t>0-465960167120</t>
+  </si>
+  <si>
+    <t>0-465984269473</t>
+  </si>
+  <si>
+    <t>0-419972553348</t>
+  </si>
+  <si>
+    <t>0-441966573634</t>
+  </si>
+  <si>
+    <t>Junior Hernandes</t>
+  </si>
+  <si>
+    <t>0-465985608968</t>
+  </si>
+  <si>
+    <t>0-465973394995</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +313,89 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,98 +683,619 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>fijo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>cargo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>salario</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>n_de_cuenta</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>banco</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>tipo_de_cuenta</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>E-8-483901</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Alejandro Mora</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Jefe de Almacen</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
-        <v>1203498309</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Banitsmo</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Corriente</t>
-        </is>
-      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>171572201</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1356467899</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1235786578</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>160423173</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F6" s="14">
+        <v>6948340484</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F8" s="14">
+        <v>9074345533</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1700</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2342343257</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>179314005</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F10" s="14">
+        <v>6738394849</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>167066268</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1246770754</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="11">
+        <v>5</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2346587962</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1246906432</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="14">
+        <v>4679074236</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5.98</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5.98</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="11">
+        <v>5.98</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>717010</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4.41</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>